--- a/Data Sources/MANUAL/BiofuelsProportion.xlsx
+++ b/Data Sources/MANUAL/BiofuelsProportion.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF96EC56-1517-4850-A9D0-250A60C27692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC7AC7-57FD-45F6-9964-3C2BA6BAA85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28635" yWindow="16110" windowWidth="28740" windowHeight="15345" xr2:uid="{337E8172-2390-4B65-ABCA-0391B90DE205}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{337E8172-2390-4B65-ABCA-0391B90DE205}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -391,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E24D5-B289-49F6-A213-71511DD7C9DD}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -415,7 +406,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -423,7 +414,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -431,7 +422,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -439,7 +430,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -447,7 +438,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -455,7 +446,7 @@
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -463,7 +454,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -471,7 +462,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -479,7 +470,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -487,7 +478,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -495,12 +486,20 @@
         <v>5.1425983509366321E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
       <c r="B13">
         <v>5.9147876441853924E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14">
+        <v>5.3927000000000003E-2</v>
       </c>
     </row>
   </sheetData>
